--- a/Code/AY 2022_23/07 Modelling 1/Integration.xlsx
+++ b/Code/AY 2022_23/07 Modelling 1/Integration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/Dropbox/Lectures GITHUB/CT248/Code/AY 2022_23/07 Modelling 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7484D771-73DD-314A-BDDA-B25AECD2BAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60EF48D-BACD-6D40-88B0-8F7A2B47F02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6840" yWindow="500" windowWidth="43140" windowHeight="23380" xr2:uid="{CCD19137-7026-FF43-8B5E-8B63901C93E1}"/>
   </bookViews>
@@ -44,13 +44,13 @@
     <t>dy/dt</t>
   </si>
   <si>
-    <t>Analytical</t>
+    <t>Mutliplier</t>
   </si>
   <si>
-    <t>Numerical</t>
+    <t>Analytical Y)</t>
   </si>
   <si>
-    <t>Mutliplier</t>
+    <t>Numerical (Y Estimate)</t>
   </si>
 </sst>
 </file>
@@ -136,10 +136,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -158,297 +159,351 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dy/dt</c:v>
+                  <c:v>Analytical Y)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$D$2:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.0000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>1.2100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2.25</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.75</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>2.5600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.25</c:v>
+                  <c:v>4.41</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.5</c:v>
+                  <c:v>4.8400000000000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.75</c:v>
+                  <c:v>5.2899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6</c:v>
+                  <c:v>5.76</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.5</c:v>
+                  <c:v>6.7600000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.75</c:v>
+                  <c:v>7.2900000000000009</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7</c:v>
+                  <c:v>7.839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.25</c:v>
+                  <c:v>8.41</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.75</c:v>
+                  <c:v>9.6100000000000012</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8</c:v>
+                  <c:v>10.240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.25</c:v>
+                  <c:v>10.889999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.5</c:v>
+                  <c:v>11.559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.75</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9</c:v>
+                  <c:v>12.96</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.25</c:v>
+                  <c:v>13.690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.5</c:v>
+                  <c:v>14.44</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.75</c:v>
+                  <c:v>15.209999999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>20</c:v>
+                <c:pt idx="41">
+                  <c:v>16.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.64</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23.04</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26.009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27.040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28.09</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29.160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30.25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.359999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.49</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33.64</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34.81</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>37.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>38.440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39.69</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40.960000000000008</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43.559999999999995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44.89</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>46.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>47.610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50.41</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>51.84</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>53.29</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>54.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>57.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>59.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>60.839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>62.410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>65.61</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>67.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>68.890000000000015</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>70.56</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>72.25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>73.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>75.689999999999984</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>77.440000000000012</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>79.210000000000008</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>82.809999999999988</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>84.639999999999986</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>86.490000000000009</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>88.360000000000014</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>90.25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>92.16</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>94.089999999999989</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>96.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>98.01</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,7 +511,364 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B3E7-F549-B423-3BF4B48FBB3E}"/>
+              <c16:uniqueId val="{00000000-61FD-6449-95C7-B8157D145AF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Numerical (Y Estimate)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.2999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.9199999999999982</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18.919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22.56</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23.52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33.059999999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34.219999999999992</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>35.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>37.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39.059999999999995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44.219999999999992</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45.559999999999995</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>46.919999999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>48.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>49.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>51.12</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>52.559999999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>54.019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>55.499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>56.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>58.519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>60.059999999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>61.62</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>63.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>64.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>66.42</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>68.06</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>69.72</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>73.100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>74.820000000000007</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>76.56</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>78.320000000000007</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>80.100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>83.72</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>85.56</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>87.42</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>91.2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>93.12</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>95.06</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>97.02</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-61FD-6449-95C7-B8157D145AF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -468,37 +880,77 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1828671375"/>
-        <c:axId val="528657615"/>
+        <c:axId val="1236623071"/>
+        <c:axId val="1236652783"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1828671375"/>
+        <c:axId val="1236623071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1236652783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1236652783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -522,8 +974,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -534,76 +987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528657615"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="528657615"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1828671375"/>
+        <c:crossAx val="1236623071"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -616,7 +1000,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -632,8 +1016,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -658,14 +1043,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -733,46 +1115,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -781,14 +1150,38 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -798,18 +1191,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -817,131 +1215,71 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -957,18 +1295,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -978,22 +1319,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1002,13 +1343,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1020,13 +1362,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1038,35 +1381,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1076,29 +1414,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1108,13 +1433,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1126,13 +1452,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1144,26 +1471,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1171,8 +1499,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1182,13 +1511,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1200,11 +1530,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1213,15 +1544,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1230,8 +1560,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1245,17 +1576,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1264,8 +1593,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1275,62 +1605,32 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>434922</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28379</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>645645</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>255418</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>21285</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4D8792-70E8-2BC9-05CA-7F757BBB3867}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>666928</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>106425</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>541156</xdr:colOff>
+      <xdr:colOff>519873</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>173161</xdr:rowOff>
+      <xdr:rowOff>109306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1346,13 +1646,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect l="41636" r="44306"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11366146" y="312179"/>
+          <a:off x="10521846" y="248324"/>
           <a:ext cx="1520261" cy="683999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1364,16 +1664,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>702401</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>766256</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>147752</xdr:rowOff>
+      <xdr:rowOff>69708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>472949</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>536804</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>145375</xdr:rowOff>
+      <xdr:rowOff>67331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,14 +1689,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10578602" y="1588031"/>
+          <a:off x="9819440" y="1509987"/>
           <a:ext cx="3885632" cy="1437903"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1408,16 +1708,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>759164</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>92235</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>269610</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>160438</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>100822</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>493901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1433,13 +1733,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:srcRect l="32376" r="32777"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9812348" y="3384302"/>
+          <a:off x="6073297" y="3831284"/>
           <a:ext cx="4339375" cy="420095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1447,6 +1747,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1392743</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>496648</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78044</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10473CCB-A6B5-082E-4B5D-13442549EF16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1749,15 +2085,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D110CA-0F3D-5D47-86EB-304DC6705EFF}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1765,16 +2102,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1789,6 +2126,7 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <f>A2*A2</f>
         <v>0</v>
       </c>
       <c r="E2">
@@ -1797,7 +2135,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="B3" s="1">
         <f>B2</f>
@@ -1805,514 +2143,2094 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C42" si="0">B3*A3</f>
-        <v>0.5</v>
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="1">A3*A3</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="E3">
+        <f>E2+C2*0.1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B42" si="1">B3</f>
+        <f t="shared" ref="B4:B42" si="2">B3</f>
         <v>2</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="3">E3+C3*0.1</f>
+        <v>2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0.6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000012E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>0.12000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>1.75</v>
+        <v>0.7</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>1.4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>0.42000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1.6</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2.25</v>
+        <v>0.9</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>1.8</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>0.72000000000000008</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>0.90000000000000013</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>2.75</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2.4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1.44</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>1.32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>3.25</v>
+        <v>1.3</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>2.6</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>1.56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.8</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>4.25</v>
+        <v>1.7</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>2.7200000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.6</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>3.24</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>3.0600000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>4.75</v>
+        <v>1.9</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>3.61</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>3.4200000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>4.41</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>5.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>5.75</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>5.2899999999999991</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>5.0600000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.8</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>5.76</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>5.5200000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>6.25</v>
+        <v>2.5</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>6.7600000000000007</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>6.75</v>
+        <v>2.7</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>7.2900000000000009</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.6</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>7.25</v>
+        <v>2.9</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.8</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>8.41</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>7.75</v>
+        <v>3.1</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>9.6100000000000012</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>9.2999999999999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.4</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>10.240000000000002</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>9.9199999999999982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>8.25</v>
+        <v>3.3</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.6</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>10.889999999999999</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>10.559999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.8</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>11.559999999999999</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>11.219999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>8.75</v>
+        <v>3.5</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>12.25</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>11.899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>12.96</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>12.599999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>9.25</v>
+        <v>3.7</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="0"/>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.4</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>13.690000000000001</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>13.319999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.6</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>14.44</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>14.059999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>9.75</v>
+        <v>3.9</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.8</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>15.209999999999999</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>14.819999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>15.599999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" ref="B43:B102" si="4">B42</f>
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" ref="C43:C102" si="5">B43*A43</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>16.809999999999999</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="5"/>
+        <v>8.4</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>17.64</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="5"/>
+        <v>8.6</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>18.489999999999998</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>18.059999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="5"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>19.360000000000003</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>18.919999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>19.799999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="5"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>21.159999999999997</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>20.699999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="5"/>
+        <v>9.4</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>22.090000000000003</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>21.619999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="5"/>
+        <v>9.6</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>23.04</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="5"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>24.010000000000005</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>23.52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="5"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>26.009999999999998</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="5"/>
+        <v>10.4</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>27.040000000000003</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="5"/>
+        <v>10.6</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>28.09</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>27.56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="5"/>
+        <v>10.8</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>29.160000000000004</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>28.619999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>30.25</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>29.699999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="5"/>
+        <v>11.2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>31.359999999999996</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>30.799999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="5"/>
+        <v>11.4</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>32.49</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>31.919999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="5"/>
+        <v>11.6</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>33.64</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>33.059999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="5"/>
+        <v>11.8</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>34.81</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>34.219999999999992</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>35.399999999999991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="5"/>
+        <v>12.2</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>37.209999999999994</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>36.599999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="5"/>
+        <v>12.4</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>38.440000000000005</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>37.819999999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="5"/>
+        <v>12.6</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>39.69</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>39.059999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="5"/>
+        <v>12.8</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>40.960000000000008</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>40.319999999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D102" si="6">A67*A67</f>
+        <v>42.25</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="3"/>
+        <v>41.599999999999994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="5"/>
+        <v>13.2</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>43.559999999999995</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E102" si="7">E67+C67*0.1</f>
+        <v>42.899999999999991</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="5"/>
+        <v>13.4</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>44.89</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="7"/>
+        <v>44.219999999999992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="5"/>
+        <v>13.6</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>46.239999999999995</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="7"/>
+        <v>45.559999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="5"/>
+        <v>13.8</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>47.610000000000007</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="7"/>
+        <v>46.919999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>7</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="7"/>
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="5"/>
+        <v>14.2</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>50.41</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="7"/>
+        <v>49.699999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="5"/>
+        <v>14.4</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>51.84</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="7"/>
+        <v>51.12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="5"/>
+        <v>14.6</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>53.29</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="7"/>
+        <v>52.559999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="5"/>
+        <v>14.8</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>54.760000000000005</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="7"/>
+        <v>54.019999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>56.25</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="7"/>
+        <v>55.499999999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="5"/>
+        <v>15.2</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>57.76</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="7"/>
+        <v>56.999999999999993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="5"/>
+        <v>15.4</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>59.290000000000006</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="7"/>
+        <v>58.519999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="5"/>
+        <v>15.6</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="6"/>
+        <v>60.839999999999996</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="7"/>
+        <v>60.059999999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="5"/>
+        <v>15.8</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>62.410000000000004</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="7"/>
+        <v>61.62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="7"/>
+        <v>63.199999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="5"/>
+        <v>16.2</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="6"/>
+        <v>65.61</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="7"/>
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="5"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>67.239999999999995</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="7"/>
+        <v>66.42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="5"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>68.890000000000015</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="7"/>
+        <v>68.06</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="5"/>
+        <v>16.8</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="6"/>
+        <v>70.56</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="7"/>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="6"/>
+        <v>72.25</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="7"/>
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="5"/>
+        <v>17.2</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="6"/>
+        <v>73.959999999999994</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="7"/>
+        <v>73.100000000000009</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="5"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="6"/>
+        <v>75.689999999999984</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="7"/>
+        <v>74.820000000000007</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="5"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="6"/>
+        <v>77.440000000000012</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="7"/>
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="5"/>
+        <v>17.8</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="6"/>
+        <v>79.210000000000008</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="7"/>
+        <v>78.320000000000007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>9</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="7"/>
+        <v>80.100000000000009</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="5"/>
+        <v>18.2</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="6"/>
+        <v>82.809999999999988</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="7"/>
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="5"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="6"/>
+        <v>84.639999999999986</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="7"/>
+        <v>83.72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="5"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="6"/>
+        <v>86.490000000000009</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="7"/>
+        <v>85.56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="5"/>
+        <v>18.8</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="6"/>
+        <v>88.360000000000014</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="7"/>
+        <v>87.42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="6"/>
+        <v>90.25</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="7"/>
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="5"/>
+        <v>19.2</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="6"/>
+        <v>92.16</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="7"/>
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="5"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="6"/>
+        <v>94.089999999999989</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="7"/>
+        <v>93.12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="5"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="6"/>
+        <v>96.04000000000002</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="7"/>
+        <v>95.06</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="5"/>
+        <v>19.8</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="6"/>
+        <v>98.01</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="7"/>
+        <v>97.02</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="5"/>
         <v>20</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="7"/>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
